--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8611472068247934</v>
+        <v>0.9017293968466276</v>
       </c>
       <c r="D2">
-        <v>0.2106661219947443</v>
+        <v>0.3138063991458253</v>
       </c>
       <c r="E2">
-        <v>0.6911654527134365</v>
+        <v>0.7056299456915707</v>
       </c>
       <c r="F2">
-        <v>0.2335125811944543</v>
+        <v>0.3092206450784714</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8611472068247934</v>
+        <v>0.9017293968466276</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05762959655354827</v>
+        <v>0.07654108912581759</v>
       </c>
       <c r="E3">
-        <v>0.8358267260658452</v>
+        <v>0.810136114609143</v>
       </c>
       <c r="F3">
-        <v>0.3425424778162012</v>
+        <v>0.496877653498959</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2106661219947443</v>
+        <v>0.3138063991458253</v>
       </c>
       <c r="C4">
-        <v>0.05762959655354827</v>
+        <v>0.07654108912581759</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2058045593099946</v>
+        <v>0.09395812762150735</v>
       </c>
       <c r="F4">
-        <v>0.06840294065521513</v>
+        <v>0.1626162229897858</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6911654527134365</v>
+        <v>0.7056299456915707</v>
       </c>
       <c r="C5">
-        <v>0.8358267260658452</v>
+        <v>0.810136114609143</v>
       </c>
       <c r="D5">
-        <v>0.2058045593099946</v>
+        <v>0.09395812762150735</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3408218444702422</v>
+        <v>0.509385455339475</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2335125811944543</v>
+        <v>0.3092206450784714</v>
       </c>
       <c r="C6">
-        <v>0.3425424778162012</v>
+        <v>0.496877653498959</v>
       </c>
       <c r="D6">
-        <v>0.06840294065521513</v>
+        <v>0.1626162229897858</v>
       </c>
       <c r="E6">
-        <v>0.3408218444702422</v>
+        <v>0.509385455339475</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1750081153152434</v>
+        <v>-0.1257350965378983</v>
       </c>
       <c r="D2">
-        <v>1.253415108852339</v>
+        <v>1.044832317283449</v>
       </c>
       <c r="E2">
-        <v>-0.39751412503401</v>
+        <v>-0.385542922639723</v>
       </c>
       <c r="F2">
-        <v>-1.192865523351723</v>
+        <v>-1.055162878543964</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1750081153152434</v>
+        <v>0.1257350965378983</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.903078074592903</v>
+        <v>1.912147129982556</v>
       </c>
       <c r="E3">
-        <v>-0.2073473383474567</v>
+        <v>-0.2448353336857338</v>
       </c>
       <c r="F3">
-        <v>-0.9500962324977479</v>
+        <v>-0.6975547831465242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.253415108852339</v>
+        <v>-1.044832317283449</v>
       </c>
       <c r="C4">
-        <v>-1.903078074592903</v>
+        <v>-1.912147129982556</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.266905971709783</v>
+        <v>-1.796859591041085</v>
       </c>
       <c r="F4">
-        <v>-1.826462054153197</v>
+        <v>-1.473976744711684</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.39751412503401</v>
+        <v>0.385542922639723</v>
       </c>
       <c r="C5">
-        <v>0.2073473383474567</v>
+        <v>0.2448353336857338</v>
       </c>
       <c r="D5">
-        <v>1.266905971709783</v>
+        <v>1.796859591041085</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.9534918262889871</v>
+        <v>-0.6770861348680258</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.192865523351723</v>
+        <v>1.055162878543964</v>
       </c>
       <c r="C6">
-        <v>0.9500962324977479</v>
+        <v>0.6975547831465242</v>
       </c>
       <c r="D6">
-        <v>1.826462054153197</v>
+        <v>1.473976744711684</v>
       </c>
       <c r="E6">
-        <v>0.9534918262889871</v>
+        <v>0.6770861348680258</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9017293968466276</v>
+        <v>0.9122409007829759</v>
       </c>
       <c r="D2">
-        <v>0.3138063991458253</v>
+        <v>0.8936125213902133</v>
       </c>
       <c r="E2">
-        <v>0.7056299456915707</v>
+        <v>0.6997818184575699</v>
       </c>
       <c r="F2">
-        <v>0.3092206450784714</v>
+        <v>0.3402156094112287</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9017293968466276</v>
+        <v>0.9122409007829759</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.07654108912581759</v>
+        <v>0.8148524329797184</v>
       </c>
       <c r="E3">
-        <v>0.810136114609143</v>
+        <v>0.8052033586943608</v>
       </c>
       <c r="F3">
-        <v>0.496877653498959</v>
+        <v>0.490732041238056</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3138063991458253</v>
+        <v>0.8936125213902133</v>
       </c>
       <c r="C4">
-        <v>0.07654108912581759</v>
+        <v>0.8148524329797184</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.09395812762150735</v>
+        <v>0.4709508091718575</v>
       </c>
       <c r="F4">
-        <v>0.1626162229897858</v>
+        <v>0.2716696358253485</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7056299456915707</v>
+        <v>0.6997818184575699</v>
       </c>
       <c r="C5">
-        <v>0.810136114609143</v>
+        <v>0.8052033586943608</v>
       </c>
       <c r="D5">
-        <v>0.09395812762150735</v>
+        <v>0.4709508091718575</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.509385455339475</v>
+        <v>0.5856012939883417</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3092206450784714</v>
+        <v>0.3402156094112287</v>
       </c>
       <c r="C6">
-        <v>0.496877653498959</v>
+        <v>0.490732041238056</v>
       </c>
       <c r="D6">
-        <v>0.1626162229897858</v>
+        <v>0.2716696358253485</v>
       </c>
       <c r="E6">
-        <v>0.509385455339475</v>
+        <v>0.5856012939883417</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1257350965378983</v>
+        <v>-0.1114872378244461</v>
       </c>
       <c r="D2">
-        <v>1.044832317283449</v>
+        <v>0.1352903700602659</v>
       </c>
       <c r="E2">
-        <v>-0.385542922639723</v>
+        <v>-0.3906929983609342</v>
       </c>
       <c r="F2">
-        <v>-1.055162878543964</v>
+        <v>-0.9748851812166953</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1257350965378983</v>
+        <v>0.1114872378244461</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.912147129982556</v>
+        <v>0.2369964925019052</v>
       </c>
       <c r="E3">
-        <v>-0.2448353336857338</v>
+        <v>-0.2496119369867177</v>
       </c>
       <c r="F3">
-        <v>-0.6975547831465242</v>
+        <v>-0.7008688564263496</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.044832317283449</v>
+        <v>-0.1352903700602659</v>
       </c>
       <c r="C4">
-        <v>-1.912147129982556</v>
+        <v>-0.2369964925019052</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.796859591041085</v>
+        <v>-0.7335796514394768</v>
       </c>
       <c r="F4">
-        <v>-1.473976744711684</v>
+        <v>-1.127521412516016</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.385542922639723</v>
+        <v>0.3906929983609342</v>
       </c>
       <c r="C5">
-        <v>0.2448353336857338</v>
+        <v>0.2496119369867177</v>
       </c>
       <c r="D5">
-        <v>1.796859591041085</v>
+        <v>0.7335796514394768</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6770861348680258</v>
+        <v>-0.5533538899008509</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.055162878543964</v>
+        <v>0.9748851812166953</v>
       </c>
       <c r="C6">
-        <v>0.6975547831465242</v>
+        <v>0.7008688564263496</v>
       </c>
       <c r="D6">
-        <v>1.473976744711684</v>
+        <v>1.127521412516016</v>
       </c>
       <c r="E6">
-        <v>0.6770861348680258</v>
+        <v>0.5533538899008509</v>
       </c>
       <c r="F6">
         <v>0</v>
